--- a/mcfly-tests-desc.xlsx
+++ b/mcfly-tests-desc.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="198">
   <si>
     <t>TLP2</t>
   </si>
@@ -248,9 +248,6 @@
     <t>new time &lt; now</t>
   </si>
   <si>
-    <t>amount &gt; hardCap</t>
-  </si>
-  <si>
     <t>amount &gt; fundTokens</t>
   </si>
   <si>
@@ -260,12 +257,6 @@
     <t>from in params = XXX e24 (=55e24)</t>
   </si>
   <si>
-    <t xml:space="preserve"> 640e24+55e24=695e24</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1800-695=1105-270=835, buy 1000 tokens, then try to fund 250</t>
-  </si>
-  <si>
     <t>fundTotalSupply += mintTokens</t>
   </si>
   <si>
@@ -290,9 +281,6 @@
     <t>fail, 78600 oddETH</t>
   </si>
   <si>
-    <t>contribute</t>
-  </si>
-  <si>
     <t>none</t>
   </si>
   <si>
@@ -320,12 +308,6 @@
     <t>TLP2, 0.12 price</t>
   </si>
   <si>
-    <t>695k tokens + 66600 oddeth</t>
-  </si>
-  <si>
-    <t>no address</t>
-  </si>
-  <si>
     <t>afterTLP2-beforeWindow</t>
   </si>
   <si>
@@ -365,15 +347,9 @@
     <t>0,5 eth (minETHin=1eth)</t>
   </si>
   <si>
-    <t>10+22+33eth</t>
-  </si>
-  <si>
     <t>after win1 before win2</t>
   </si>
   <si>
-    <t>55+66+77eth</t>
-  </si>
-  <si>
     <t>closeWindow</t>
   </si>
   <si>
@@ -504,6 +480,144 @@
   </si>
   <si>
     <t>Test name</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.4</t>
+  </si>
+  <si>
+    <t>check at deploy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.15</t>
+  </si>
+  <si>
+    <t>1+2+3eth</t>
+  </si>
+  <si>
+    <t>5+6+7eth</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.18</t>
+  </si>
+  <si>
+    <t>try to close already closed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.16.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.16.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.16.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.5</t>
+  </si>
+  <si>
+    <t>advisoryWithdraw</t>
+  </si>
+  <si>
+    <t>reservedWithdraw</t>
+  </si>
+  <si>
+    <t>period1-24</t>
+  </si>
+  <si>
+    <t>advisoryWallet</t>
+  </si>
+  <si>
+    <t>reservedWallet</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.7</t>
+  </si>
+  <si>
+    <t>132600eth</t>
+  </si>
+  <si>
+    <t>1105k tokens</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.4</t>
+  </si>
+  <si>
+    <t>1105k tokens + 17400 oddeth</t>
   </si>
 </sst>
 </file>
@@ -544,7 +658,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -560,6 +674,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,7 +711,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -604,6 +724,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -886,8 +1010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -923,7 +1047,7 @@
         <v>26</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
@@ -940,7 +1064,9 @@
         <v>8</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
@@ -952,7 +1078,9 @@
       <c r="F7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="2"/>
+      <c r="G7" s="4" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
@@ -962,9 +1090,11 @@
         <v>11</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G8" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
@@ -976,7 +1106,9 @@
       <c r="F9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="2"/>
+      <c r="G9" s="4" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
@@ -988,7 +1120,9 @@
       <c r="F10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="2"/>
+      <c r="G10" s="8" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
@@ -1000,7 +1134,9 @@
       <c r="F11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="2"/>
+      <c r="G11" s="4" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
@@ -1012,7 +1148,9 @@
       <c r="F12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="2"/>
+      <c r="G12" s="8" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
@@ -1024,7 +1162,9 @@
       <c r="F13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="2"/>
+      <c r="G13" s="8" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
@@ -1036,7 +1176,9 @@
       <c r="F14" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="2"/>
+      <c r="G14" s="8" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
@@ -1048,7 +1190,9 @@
       <c r="F15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="2"/>
+      <c r="G15" s="4" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
@@ -1060,7 +1204,9 @@
       <c r="F16" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="2"/>
+      <c r="G16" s="8" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
@@ -1072,7 +1218,9 @@
       <c r="F17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="2"/>
+      <c r="G17" s="4" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
@@ -1084,7 +1232,9 @@
       <c r="F18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="2"/>
+      <c r="G18" s="8" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
@@ -1096,7 +1246,9 @@
       <c r="F19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="2"/>
+      <c r="G19" s="8" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
@@ -1108,7 +1260,9 @@
       <c r="F20" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G20" s="2"/>
+      <c r="G20" s="8" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
@@ -1120,7 +1274,9 @@
       <c r="F21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G21" s="2"/>
+      <c r="G21" s="8" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
@@ -1132,7 +1288,9 @@
       <c r="F22" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G22" s="2"/>
+      <c r="G22" s="8" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
@@ -1144,7 +1302,9 @@
       <c r="F23" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="2"/>
+      <c r="G23" s="4" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
@@ -1153,10 +1313,12 @@
       <c r="E24" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F24" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G24" s="2"/>
+      <c r="F24" s="9">
+        <v>155000000</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
@@ -1174,7 +1336,9 @@
       <c r="F25" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G25" s="2"/>
+      <c r="G25" s="4" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
@@ -1186,7 +1350,9 @@
       <c r="F26" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G26" s="2"/>
+      <c r="G26" s="4" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
@@ -1204,7 +1370,9 @@
       <c r="F27" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G27" s="2"/>
+      <c r="G27" s="4" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
@@ -1216,7 +1384,9 @@
       <c r="F28" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G28" s="2"/>
+      <c r="G28" s="4" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
@@ -1228,7 +1398,9 @@
       <c r="F29" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G29" s="2"/>
+      <c r="G29" s="4" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
@@ -1246,7 +1418,9 @@
       <c r="F30" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="G30" s="2"/>
+      <c r="G30" s="4" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="s">
@@ -1264,7 +1438,9 @@
       <c r="F31" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G31" s="2"/>
+      <c r="G31" s="4" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
@@ -1276,7 +1452,9 @@
       <c r="F32" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G32" s="2"/>
+      <c r="G32" s="4" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
@@ -1294,7 +1472,9 @@
       <c r="F33" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="G33" s="2"/>
+      <c r="G33" s="4" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
@@ -1306,7 +1486,9 @@
       <c r="F34" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G34" s="2"/>
+      <c r="G34" s="4" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="s">
@@ -1324,7 +1506,9 @@
       <c r="F35" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="G35" s="2"/>
+      <c r="G35" s="4" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
@@ -1336,7 +1520,9 @@
       <c r="F36" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G36" s="2"/>
+      <c r="G36" s="4" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
@@ -1348,7 +1534,9 @@
       <c r="F37" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G37" s="2"/>
+      <c r="G37" s="4" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
@@ -1360,7 +1548,9 @@
       <c r="F38" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G38" s="2"/>
+      <c r="G38" s="4" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
@@ -1372,7 +1562,9 @@
       <c r="F39" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G39" s="2"/>
+      <c r="G39" s="4" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
@@ -1390,7 +1582,9 @@
       <c r="F40" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="G40" s="2"/>
+      <c r="G40" s="4" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
@@ -1404,19 +1598,23 @@
       <c r="F41" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G41" s="2"/>
+      <c r="G41" s="4" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G42" s="2"/>
+      <c r="G42" s="4" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
@@ -1428,7 +1626,9 @@
       <c r="F43" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G43" s="2"/>
+      <c r="G43" s="4" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
@@ -1440,63 +1640,73 @@
       <c r="F44" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G44" s="2"/>
+      <c r="G44" s="4" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E45" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E45" s="4" t="s">
-        <v>76</v>
-      </c>
       <c r="F45" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G45" s="2"/>
+      <c r="G45" s="4" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G46" s="2"/>
+      <c r="B46" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E48" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="F48" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G48" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="2"/>
@@ -1505,12 +1715,14 @@
         <v>0</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G49" s="2"/>
+      <c r="G49" s="4" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="2"/>
@@ -1519,274 +1731,310 @@
         <v>0</v>
       </c>
       <c r="E50" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F50" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G50" s="2"/>
+      <c r="G50" s="4" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F51" s="2" t="s">
+      <c r="B51" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="G51" s="2"/>
+      <c r="C51" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E52" s="6" t="s">
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F52" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G52" s="2"/>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="6" t="s">
+      <c r="F53" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C53" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G53" s="2"/>
+      <c r="G53" s="4" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G54" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G55" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>96</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="E56" s="2"/>
       <c r="F56" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G56" s="2"/>
+        <v>57</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
-      <c r="C57" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="F57" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G57" s="2"/>
+      <c r="G57" s="4" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E58" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>171</v>
+      </c>
       <c r="F58" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G58" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>112</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="E59" s="2"/>
       <c r="F59" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G59" s="2"/>
+      <c r="G59" s="4" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G60" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E61" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="F61" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G61" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>104</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="E62" s="2"/>
       <c r="F62" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G62" s="2"/>
+        <v>57</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>106</v>
+        <v>172</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G63" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E64" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="F64" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G64" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="E65" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G65" s="2"/>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2" t="s">
+      <c r="C66" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E66" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G66" s="2"/>
+      <c r="F66" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2" t="s">
-        <v>110</v>
-      </c>
+      <c r="C67" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D67" s="2"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G67" s="2"/>
+      <c r="G67" s="4" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B68" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C68" s="6" t="s">
+      <c r="B68" s="2"/>
+      <c r="C68" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D68" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F68" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="G68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69" s="2"/>
-      <c r="C69" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="F69" s="2" t="s">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="G69" s="2"/>
     </row>
@@ -1794,287 +2042,329 @@
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E70" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B71" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F71" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="F70" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G70" s="2"/>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G71" s="2"/>
+      <c r="G71" s="4" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B72" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F72" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="G72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73" s="2"/>
       <c r="C73" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="F73" s="2" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B74" s="2"/>
-      <c r="C74" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G74" s="2"/>
+      <c r="B74" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B75" s="6" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D75" s="6"/>
+        <v>54</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>122</v>
+      </c>
       <c r="E75" s="6" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G75" s="2"/>
+        <v>124</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B76" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
       <c r="D76" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>131</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="E76" s="2"/>
       <c r="F76" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="G76" s="2"/>
+        <v>57</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G77" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F77" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G78" s="2"/>
+      <c r="B78" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B79" s="6" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D79" s="6"/>
+        <v>54</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>122</v>
+      </c>
       <c r="E79" s="6" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="F79" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G79" s="2"/>
+      <c r="G79" s="4" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B80" s="6" t="s">
+      <c r="B80" s="2"/>
+      <c r="C80" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C80" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="F80" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G80" s="2"/>
+      <c r="E80" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81" s="2"/>
       <c r="C81" s="2" t="s">
-        <v>54</v>
+        <v>134</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G81" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B82" s="2"/>
       <c r="C82" s="2" t="s">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>140</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="E82" s="2"/>
       <c r="F82" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G82" s="2"/>
+        <v>57</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G83" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G84" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G85" s="2"/>
+        <v>57</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G86" s="2"/>
+      <c r="B86" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G87" s="2"/>
+      <c r="B87" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B88" s="6" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
       <c r="E88" s="6"/>
       <c r="F88" s="6" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="G88" s="2"/>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B89" s="7" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -2084,7 +2374,7 @@
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B90" s="7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -2094,7 +2384,7 @@
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B91" s="7" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -2104,7 +2394,7 @@
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B92" s="7" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -2114,7 +2404,7 @@
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B93" s="7" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -2124,7 +2414,7 @@
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B94" s="7" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -2134,7 +2424,7 @@
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B95" s="7" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
@@ -2144,7 +2434,7 @@
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B96" s="7" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
@@ -2154,7 +2444,7 @@
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B97" s="7" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
